--- a/Project Report/relational_schema.xlsx
+++ b/Project Report/relational_schema.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="570" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="577" uniqueCount="110">
   <si>
     <t>1NF/2NF Relational Schema</t>
   </si>
@@ -333,6 +333,21 @@
   <si>
     <t>PartQuantity</t>
   </si>
+  <si>
+    <t>TPPrice</t>
+  </si>
+  <si>
+    <t>Cdate</t>
+  </si>
+  <si>
+    <t>Cancelled</t>
+  </si>
+  <si>
+    <t>PPrice</t>
+  </si>
+  <si>
+    <t>CDate</t>
+  </si>
 </sst>
 </file>
 
@@ -417,7 +432,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -503,6 +518,9 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -9124,7 +9142,7 @@
       <xdr:grpSpPr>
         <a:xfrm>
           <a:off x="676275" y="1362075"/>
-          <a:ext cx="6219825" cy="209550"/>
+          <a:ext cx="6257925" cy="209550"/>
           <a:chOff x="1038225" y="1362075"/>
           <a:chExt cx="7591425" cy="209550"/>
         </a:xfrm>
@@ -9421,13 +9439,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>17</xdr:col>
+      <xdr:col>19</xdr:col>
       <xdr:colOff>400050</xdr:colOff>
       <xdr:row>10</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
+      <xdr:col>21</xdr:col>
       <xdr:colOff>438150</xdr:colOff>
       <xdr:row>12</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
@@ -9439,7 +9457,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="12077700" y="2124075"/>
+          <a:off x="13677900" y="2124075"/>
           <a:ext cx="1600200" cy="209550"/>
           <a:chOff x="895350" y="2886075"/>
           <a:chExt cx="1943100" cy="209550"/>
@@ -9563,7 +9581,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm rot="10800000">
-          <a:off x="3867150" y="990600"/>
+          <a:off x="3905250" y="990600"/>
           <a:ext cx="1600200" cy="219075"/>
           <a:chOff x="895350" y="2886075"/>
           <a:chExt cx="1943100" cy="219075"/>
@@ -9872,7 +9890,7 @@
       <xdr:grpSpPr>
         <a:xfrm>
           <a:off x="590550" y="12801600"/>
-          <a:ext cx="3202081" cy="200025"/>
+          <a:ext cx="3240181" cy="200025"/>
           <a:chOff x="952500" y="2143125"/>
           <a:chExt cx="3888241" cy="200025"/>
         </a:xfrm>
@@ -10041,13 +10059,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>22</xdr:col>
+      <xdr:col>24</xdr:col>
       <xdr:colOff>381000</xdr:colOff>
       <xdr:row>26</xdr:row>
       <xdr:rowOff>180975</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>24</xdr:col>
+      <xdr:col>26</xdr:col>
       <xdr:colOff>419100</xdr:colOff>
       <xdr:row>28</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
@@ -10059,7 +10077,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="15963900" y="5181600"/>
+          <a:off x="17564100" y="5181600"/>
           <a:ext cx="1600200" cy="200025"/>
           <a:chOff x="895350" y="2895600"/>
           <a:chExt cx="1943100" cy="200025"/>
@@ -10165,13 +10183,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>17</xdr:col>
+      <xdr:col>19</xdr:col>
       <xdr:colOff>400050</xdr:colOff>
       <xdr:row>26</xdr:row>
       <xdr:rowOff>180975</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
+      <xdr:col>21</xdr:col>
       <xdr:colOff>438150</xdr:colOff>
       <xdr:row>28</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
@@ -10183,7 +10201,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="12077700" y="5181600"/>
+          <a:off x="13677900" y="5181600"/>
           <a:ext cx="1600200" cy="200025"/>
           <a:chOff x="895350" y="2895600"/>
           <a:chExt cx="1943100" cy="200025"/>
@@ -10308,7 +10326,7 @@
       <xdr:grpSpPr>
         <a:xfrm rot="10800000">
           <a:off x="2152650" y="12430125"/>
-          <a:ext cx="1600200" cy="219075"/>
+          <a:ext cx="1638300" cy="219075"/>
           <a:chOff x="895350" y="2886075"/>
           <a:chExt cx="1943100" cy="219075"/>
         </a:xfrm>
@@ -10413,13 +10431,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>17</xdr:col>
+      <xdr:col>19</xdr:col>
       <xdr:colOff>428625</xdr:colOff>
       <xdr:row>6</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>23</xdr:col>
+      <xdr:col>25</xdr:col>
       <xdr:colOff>409575</xdr:colOff>
       <xdr:row>8</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
@@ -10431,7 +10449,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="12106275" y="1362075"/>
+          <a:off x="13706475" y="1362075"/>
           <a:ext cx="4667250" cy="209550"/>
           <a:chOff x="9496425" y="1362075"/>
           <a:chExt cx="5695950" cy="209550"/>
@@ -10805,7 +10823,7 @@
       <xdr:grpSpPr>
         <a:xfrm>
           <a:off x="742950" y="9753600"/>
-          <a:ext cx="2173292" cy="200025"/>
+          <a:ext cx="2211392" cy="200025"/>
           <a:chOff x="742950" y="7467600"/>
           <a:chExt cx="2173292" cy="200025"/>
         </a:xfrm>
@@ -10936,135 +10954,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>571500</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>240238</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:grpSp>
-      <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="101" name="Group 100"/>
-        <xdr:cNvGrpSpPr/>
-      </xdr:nvGrpSpPr>
-      <xdr:grpSpPr>
-        <a:xfrm>
-          <a:off x="819150" y="4419600"/>
-          <a:ext cx="1230838" cy="200025"/>
-          <a:chOff x="819150" y="3657600"/>
-          <a:chExt cx="1230838" cy="200025"/>
-        </a:xfrm>
-      </xdr:grpSpPr>
-      <xdr:cxnSp macro="">
-        <xdr:nvCxnSpPr>
-          <xdr:cNvPr id="102" name="Elbow Connector 101"/>
-          <xdr:cNvCxnSpPr/>
-        </xdr:nvCxnSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="819150" y="3667125"/>
-            <a:ext cx="1228725" cy="190500"/>
-          </a:xfrm>
-          <a:prstGeom prst="bentConnector3">
-            <a:avLst>
-              <a:gd name="adj1" fmla="val 388"/>
-            </a:avLst>
-          </a:prstGeom>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="1">
-            <a:schemeClr val="dk1"/>
-          </a:lnRef>
-          <a:fillRef idx="0">
-            <a:schemeClr val="dk1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="dk1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="tx1"/>
-          </a:fontRef>
-        </xdr:style>
-      </xdr:cxnSp>
-      <xdr:cxnSp macro="">
-        <xdr:nvCxnSpPr>
-          <xdr:cNvPr id="103" name="Straight Arrow Connector 102"/>
-          <xdr:cNvCxnSpPr/>
-        </xdr:nvCxnSpPr>
-        <xdr:spPr>
-          <a:xfrm flipV="1">
-            <a:off x="2049988" y="3657600"/>
-            <a:ext cx="0" cy="200025"/>
-          </a:xfrm>
-          <a:prstGeom prst="straightConnector1">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:ln>
-            <a:tailEnd type="arrow"/>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="1">
-            <a:schemeClr val="dk1"/>
-          </a:lnRef>
-          <a:fillRef idx="0">
-            <a:schemeClr val="dk1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="dk1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="tx1"/>
-          </a:fontRef>
-        </xdr:style>
-      </xdr:cxnSp>
-      <xdr:cxnSp macro="">
-        <xdr:nvCxnSpPr>
-          <xdr:cNvPr id="105" name="Straight Connector 104"/>
-          <xdr:cNvCxnSpPr/>
-        </xdr:nvCxnSpPr>
-        <xdr:spPr>
-          <a:xfrm flipV="1">
-            <a:off x="1419225" y="3667125"/>
-            <a:ext cx="0" cy="180975"/>
-          </a:xfrm>
-          <a:prstGeom prst="line">
-            <a:avLst/>
-          </a:prstGeom>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="1">
-            <a:schemeClr val="dk1"/>
-          </a:lnRef>
-          <a:fillRef idx="0">
-            <a:schemeClr val="dk1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="dk1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="tx1"/>
-          </a:fontRef>
-        </xdr:style>
-      </xdr:cxnSp>
-    </xdr:grpSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>238125</xdr:colOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>361950</xdr:colOff>
       <xdr:row>16</xdr:row>
       <xdr:rowOff>180975</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>276225</xdr:colOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>400050</xdr:colOff>
       <xdr:row>18</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
@@ -11075,7 +10972,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm rot="10800000">
-          <a:off x="7515225" y="3276600"/>
+          <a:off x="9239250" y="3276600"/>
           <a:ext cx="1600200" cy="219075"/>
           <a:chOff x="895350" y="2886075"/>
           <a:chExt cx="1943100" cy="219075"/>
@@ -11181,13 +11078,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>17</xdr:col>
+      <xdr:col>19</xdr:col>
       <xdr:colOff>400050</xdr:colOff>
       <xdr:row>18</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
+      <xdr:col>21</xdr:col>
       <xdr:colOff>438150</xdr:colOff>
       <xdr:row>20</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
@@ -11199,7 +11096,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="12077700" y="3648075"/>
+          <a:off x="13677900" y="3648075"/>
           <a:ext cx="1600200" cy="209550"/>
           <a:chOff x="895350" y="2886075"/>
           <a:chExt cx="1943100" cy="209550"/>
@@ -11416,7 +11313,7 @@
       <xdr:grpSpPr>
         <a:xfrm>
           <a:off x="590550" y="11277600"/>
-          <a:ext cx="2400300" cy="200025"/>
+          <a:ext cx="2438400" cy="200025"/>
           <a:chOff x="590550" y="9944100"/>
           <a:chExt cx="2400300" cy="200025"/>
         </a:xfrm>
@@ -11524,354 +11421,6 @@
         <xdr:spPr>
           <a:xfrm flipV="1">
             <a:off x="2990850" y="9944100"/>
-            <a:ext cx="0" cy="200025"/>
-          </a:xfrm>
-          <a:prstGeom prst="straightConnector1">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:ln>
-            <a:tailEnd type="arrow"/>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="1">
-            <a:schemeClr val="dk1"/>
-          </a:lnRef>
-          <a:fillRef idx="0">
-            <a:schemeClr val="dk1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="dk1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="tx1"/>
-          </a:fontRef>
-        </xdr:style>
-      </xdr:cxnSp>
-    </xdr:grpSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>247650</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>28</xdr:col>
-      <xdr:colOff>401032</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:grpSp>
-      <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="181" name="Group 180"/>
-        <xdr:cNvGrpSpPr/>
-      </xdr:nvGrpSpPr>
-      <xdr:grpSpPr>
-        <a:xfrm>
-          <a:off x="11925300" y="2886075"/>
-          <a:ext cx="8744932" cy="209550"/>
-          <a:chOff x="11144250" y="2886075"/>
-          <a:chExt cx="7182832" cy="209550"/>
-        </a:xfrm>
-      </xdr:grpSpPr>
-      <xdr:cxnSp macro="">
-        <xdr:nvCxnSpPr>
-          <xdr:cNvPr id="170" name="Elbow Connector 169"/>
-          <xdr:cNvCxnSpPr/>
-        </xdr:nvCxnSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="11144250" y="2914650"/>
-            <a:ext cx="7181850" cy="180975"/>
-          </a:xfrm>
-          <a:prstGeom prst="bentConnector3">
-            <a:avLst>
-              <a:gd name="adj1" fmla="val 0"/>
-            </a:avLst>
-          </a:prstGeom>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="1">
-            <a:schemeClr val="dk1"/>
-          </a:lnRef>
-          <a:fillRef idx="0">
-            <a:schemeClr val="dk1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="dk1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="tx1"/>
-          </a:fontRef>
-        </xdr:style>
-      </xdr:cxnSp>
-      <xdr:cxnSp macro="">
-        <xdr:nvCxnSpPr>
-          <xdr:cNvPr id="171" name="Straight Arrow Connector 170"/>
-          <xdr:cNvCxnSpPr/>
-        </xdr:nvCxnSpPr>
-        <xdr:spPr>
-          <a:xfrm flipV="1">
-            <a:off x="11944659" y="2886075"/>
-            <a:ext cx="0" cy="200025"/>
-          </a:xfrm>
-          <a:prstGeom prst="straightConnector1">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:ln>
-            <a:tailEnd type="arrow"/>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="1">
-            <a:schemeClr val="dk1"/>
-          </a:lnRef>
-          <a:fillRef idx="0">
-            <a:schemeClr val="dk1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="dk1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="tx1"/>
-          </a:fontRef>
-        </xdr:style>
-      </xdr:cxnSp>
-      <xdr:cxnSp macro="">
-        <xdr:nvCxnSpPr>
-          <xdr:cNvPr id="172" name="Straight Arrow Connector 171"/>
-          <xdr:cNvCxnSpPr/>
-        </xdr:nvCxnSpPr>
-        <xdr:spPr>
-          <a:xfrm flipV="1">
-            <a:off x="12793577" y="2895600"/>
-            <a:ext cx="0" cy="200025"/>
-          </a:xfrm>
-          <a:prstGeom prst="straightConnector1">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:ln>
-            <a:tailEnd type="arrow"/>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="1">
-            <a:schemeClr val="dk1"/>
-          </a:lnRef>
-          <a:fillRef idx="0">
-            <a:schemeClr val="dk1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="dk1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="tx1"/>
-          </a:fontRef>
-        </xdr:style>
-      </xdr:cxnSp>
-      <xdr:cxnSp macro="">
-        <xdr:nvCxnSpPr>
-          <xdr:cNvPr id="173" name="Straight Arrow Connector 172"/>
-          <xdr:cNvCxnSpPr/>
-        </xdr:nvCxnSpPr>
-        <xdr:spPr>
-          <a:xfrm flipV="1">
-            <a:off x="13658666" y="2895600"/>
-            <a:ext cx="0" cy="200025"/>
-          </a:xfrm>
-          <a:prstGeom prst="straightConnector1">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:ln>
-            <a:tailEnd type="arrow"/>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="1">
-            <a:schemeClr val="dk1"/>
-          </a:lnRef>
-          <a:fillRef idx="0">
-            <a:schemeClr val="dk1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="dk1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="tx1"/>
-          </a:fontRef>
-        </xdr:style>
-      </xdr:cxnSp>
-      <xdr:cxnSp macro="">
-        <xdr:nvCxnSpPr>
-          <xdr:cNvPr id="174" name="Straight Arrow Connector 173"/>
-          <xdr:cNvCxnSpPr/>
-        </xdr:nvCxnSpPr>
-        <xdr:spPr>
-          <a:xfrm flipV="1">
-            <a:off x="14434821" y="2895600"/>
-            <a:ext cx="0" cy="200025"/>
-          </a:xfrm>
-          <a:prstGeom prst="straightConnector1">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:ln>
-            <a:tailEnd type="arrow"/>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="1">
-            <a:schemeClr val="dk1"/>
-          </a:lnRef>
-          <a:fillRef idx="0">
-            <a:schemeClr val="dk1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="dk1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="tx1"/>
-          </a:fontRef>
-        </xdr:style>
-      </xdr:cxnSp>
-      <xdr:cxnSp macro="">
-        <xdr:nvCxnSpPr>
-          <xdr:cNvPr id="175" name="Straight Arrow Connector 174"/>
-          <xdr:cNvCxnSpPr/>
-        </xdr:nvCxnSpPr>
-        <xdr:spPr>
-          <a:xfrm flipV="1">
-            <a:off x="15219060" y="2895600"/>
-            <a:ext cx="0" cy="200025"/>
-          </a:xfrm>
-          <a:prstGeom prst="straightConnector1">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:ln>
-            <a:tailEnd type="arrow"/>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="1">
-            <a:schemeClr val="dk1"/>
-          </a:lnRef>
-          <a:fillRef idx="0">
-            <a:schemeClr val="dk1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="dk1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="tx1"/>
-          </a:fontRef>
-        </xdr:style>
-      </xdr:cxnSp>
-      <xdr:cxnSp macro="">
-        <xdr:nvCxnSpPr>
-          <xdr:cNvPr id="176" name="Straight Arrow Connector 175"/>
-          <xdr:cNvCxnSpPr/>
-        </xdr:nvCxnSpPr>
-        <xdr:spPr>
-          <a:xfrm flipV="1">
-            <a:off x="15979045" y="2895600"/>
-            <a:ext cx="0" cy="200025"/>
-          </a:xfrm>
-          <a:prstGeom prst="straightConnector1">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:ln>
-            <a:tailEnd type="arrow"/>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="1">
-            <a:schemeClr val="dk1"/>
-          </a:lnRef>
-          <a:fillRef idx="0">
-            <a:schemeClr val="dk1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="dk1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="tx1"/>
-          </a:fontRef>
-        </xdr:style>
-      </xdr:cxnSp>
-      <xdr:cxnSp macro="">
-        <xdr:nvCxnSpPr>
-          <xdr:cNvPr id="177" name="Straight Arrow Connector 176"/>
-          <xdr:cNvCxnSpPr/>
-        </xdr:nvCxnSpPr>
-        <xdr:spPr>
-          <a:xfrm flipV="1">
-            <a:off x="16811795" y="2895600"/>
-            <a:ext cx="0" cy="200025"/>
-          </a:xfrm>
-          <a:prstGeom prst="straightConnector1">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:ln>
-            <a:tailEnd type="arrow"/>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="1">
-            <a:schemeClr val="dk1"/>
-          </a:lnRef>
-          <a:fillRef idx="0">
-            <a:schemeClr val="dk1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="dk1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="tx1"/>
-          </a:fontRef>
-        </xdr:style>
-      </xdr:cxnSp>
-      <xdr:cxnSp macro="">
-        <xdr:nvCxnSpPr>
-          <xdr:cNvPr id="178" name="Straight Arrow Connector 177"/>
-          <xdr:cNvCxnSpPr/>
-        </xdr:nvCxnSpPr>
-        <xdr:spPr>
-          <a:xfrm flipV="1">
-            <a:off x="17526758" y="2895600"/>
-            <a:ext cx="0" cy="200025"/>
-          </a:xfrm>
-          <a:prstGeom prst="straightConnector1">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:ln>
-            <a:tailEnd type="arrow"/>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="1">
-            <a:schemeClr val="dk1"/>
-          </a:lnRef>
-          <a:fillRef idx="0">
-            <a:schemeClr val="dk1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="dk1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="tx1"/>
-          </a:fontRef>
-        </xdr:style>
-      </xdr:cxnSp>
-      <xdr:cxnSp macro="">
-        <xdr:nvCxnSpPr>
-          <xdr:cNvPr id="167" name="Straight Arrow Connector 166"/>
-          <xdr:cNvCxnSpPr/>
-        </xdr:nvCxnSpPr>
-        <xdr:spPr>
-          <a:xfrm flipV="1">
-            <a:off x="18327082" y="2895600"/>
             <a:ext cx="0" cy="200025"/>
           </a:xfrm>
           <a:prstGeom prst="straightConnector1">
@@ -11919,7 +11468,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm rot="10800000">
-          <a:off x="3667125" y="8620125"/>
+          <a:off x="3705225" y="8620125"/>
           <a:ext cx="1600200" cy="200025"/>
           <a:chOff x="895350" y="2895600"/>
           <a:chExt cx="1943100" cy="200025"/>
@@ -12044,7 +11593,7 @@
       <xdr:grpSpPr>
         <a:xfrm>
           <a:off x="647700" y="8991600"/>
-          <a:ext cx="4610100" cy="200025"/>
+          <a:ext cx="4648200" cy="200025"/>
           <a:chOff x="676275" y="3657600"/>
           <a:chExt cx="4610100" cy="200025"/>
         </a:xfrm>
@@ -12277,517 +11826,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>266700</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>342900</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:grpSp>
-      <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="85" name="Group 84"/>
-        <xdr:cNvGrpSpPr/>
-      </xdr:nvGrpSpPr>
-      <xdr:grpSpPr>
-        <a:xfrm>
-          <a:off x="514350" y="3648075"/>
-          <a:ext cx="10229850" cy="209550"/>
-          <a:chOff x="514350" y="2124075"/>
-          <a:chExt cx="10229850" cy="209550"/>
-        </a:xfrm>
-      </xdr:grpSpPr>
-      <xdr:grpSp>
-        <xdr:nvGrpSpPr>
-          <xdr:cNvPr id="118" name="Group 117"/>
-          <xdr:cNvGrpSpPr/>
-        </xdr:nvGrpSpPr>
-        <xdr:grpSpPr>
-          <a:xfrm>
-            <a:off x="514350" y="2124075"/>
-            <a:ext cx="10229850" cy="209550"/>
-            <a:chOff x="514350" y="2124075"/>
-            <a:chExt cx="10229850" cy="209550"/>
-          </a:xfrm>
-        </xdr:grpSpPr>
-        <xdr:grpSp>
-          <xdr:nvGrpSpPr>
-            <xdr:cNvPr id="119" name="Group 118"/>
-            <xdr:cNvGrpSpPr/>
-          </xdr:nvGrpSpPr>
-          <xdr:grpSpPr>
-            <a:xfrm>
-              <a:off x="514350" y="2124075"/>
-              <a:ext cx="10229850" cy="209550"/>
-              <a:chOff x="1038225" y="1362075"/>
-              <a:chExt cx="12485743" cy="209550"/>
-            </a:xfrm>
-          </xdr:grpSpPr>
-          <xdr:cxnSp macro="">
-            <xdr:nvCxnSpPr>
-              <xdr:cNvPr id="123" name="Elbow Connector 122"/>
-              <xdr:cNvCxnSpPr/>
-            </xdr:nvCxnSpPr>
-            <xdr:spPr>
-              <a:xfrm>
-                <a:off x="1038225" y="1390650"/>
-                <a:ext cx="12485743" cy="180975"/>
-              </a:xfrm>
-              <a:prstGeom prst="bentConnector3">
-                <a:avLst>
-                  <a:gd name="adj1" fmla="val 0"/>
-                </a:avLst>
-              </a:prstGeom>
-            </xdr:spPr>
-            <xdr:style>
-              <a:lnRef idx="1">
-                <a:schemeClr val="dk1"/>
-              </a:lnRef>
-              <a:fillRef idx="0">
-                <a:schemeClr val="dk1"/>
-              </a:fillRef>
-              <a:effectRef idx="0">
-                <a:schemeClr val="dk1"/>
-              </a:effectRef>
-              <a:fontRef idx="minor">
-                <a:schemeClr val="tx1"/>
-              </a:fontRef>
-            </xdr:style>
-          </xdr:cxnSp>
-          <xdr:cxnSp macro="">
-            <xdr:nvCxnSpPr>
-              <xdr:cNvPr id="124" name="Straight Arrow Connector 123"/>
-              <xdr:cNvCxnSpPr/>
-            </xdr:nvCxnSpPr>
-            <xdr:spPr>
-              <a:xfrm flipV="1">
-                <a:off x="1981200" y="1362075"/>
-                <a:ext cx="0" cy="200025"/>
-              </a:xfrm>
-              <a:prstGeom prst="straightConnector1">
-                <a:avLst/>
-              </a:prstGeom>
-              <a:ln>
-                <a:tailEnd type="arrow"/>
-              </a:ln>
-            </xdr:spPr>
-            <xdr:style>
-              <a:lnRef idx="1">
-                <a:schemeClr val="dk1"/>
-              </a:lnRef>
-              <a:fillRef idx="0">
-                <a:schemeClr val="dk1"/>
-              </a:fillRef>
-              <a:effectRef idx="0">
-                <a:schemeClr val="dk1"/>
-              </a:effectRef>
-              <a:fontRef idx="minor">
-                <a:schemeClr val="tx1"/>
-              </a:fontRef>
-            </xdr:style>
-          </xdr:cxnSp>
-          <xdr:cxnSp macro="">
-            <xdr:nvCxnSpPr>
-              <xdr:cNvPr id="125" name="Straight Arrow Connector 124"/>
-              <xdr:cNvCxnSpPr/>
-            </xdr:nvCxnSpPr>
-            <xdr:spPr>
-              <a:xfrm flipV="1">
-                <a:off x="2981324" y="1371600"/>
-                <a:ext cx="0" cy="200025"/>
-              </a:xfrm>
-              <a:prstGeom prst="straightConnector1">
-                <a:avLst/>
-              </a:prstGeom>
-              <a:ln>
-                <a:tailEnd type="arrow"/>
-              </a:ln>
-            </xdr:spPr>
-            <xdr:style>
-              <a:lnRef idx="1">
-                <a:schemeClr val="dk1"/>
-              </a:lnRef>
-              <a:fillRef idx="0">
-                <a:schemeClr val="dk1"/>
-              </a:fillRef>
-              <a:effectRef idx="0">
-                <a:schemeClr val="dk1"/>
-              </a:effectRef>
-              <a:fontRef idx="minor">
-                <a:schemeClr val="tx1"/>
-              </a:fontRef>
-            </xdr:style>
-          </xdr:cxnSp>
-          <xdr:cxnSp macro="">
-            <xdr:nvCxnSpPr>
-              <xdr:cNvPr id="126" name="Straight Arrow Connector 125"/>
-              <xdr:cNvCxnSpPr/>
-            </xdr:nvCxnSpPr>
-            <xdr:spPr>
-              <a:xfrm flipV="1">
-                <a:off x="4000499" y="1371600"/>
-                <a:ext cx="0" cy="200025"/>
-              </a:xfrm>
-              <a:prstGeom prst="straightConnector1">
-                <a:avLst/>
-              </a:prstGeom>
-              <a:ln>
-                <a:tailEnd type="arrow"/>
-              </a:ln>
-            </xdr:spPr>
-            <xdr:style>
-              <a:lnRef idx="1">
-                <a:schemeClr val="dk1"/>
-              </a:lnRef>
-              <a:fillRef idx="0">
-                <a:schemeClr val="dk1"/>
-              </a:fillRef>
-              <a:effectRef idx="0">
-                <a:schemeClr val="dk1"/>
-              </a:effectRef>
-              <a:fontRef idx="minor">
-                <a:schemeClr val="tx1"/>
-              </a:fontRef>
-            </xdr:style>
-          </xdr:cxnSp>
-          <xdr:cxnSp macro="">
-            <xdr:nvCxnSpPr>
-              <xdr:cNvPr id="127" name="Straight Arrow Connector 126"/>
-              <xdr:cNvCxnSpPr/>
-            </xdr:nvCxnSpPr>
-            <xdr:spPr>
-              <a:xfrm flipV="1">
-                <a:off x="4914900" y="1371600"/>
-                <a:ext cx="0" cy="200025"/>
-              </a:xfrm>
-              <a:prstGeom prst="straightConnector1">
-                <a:avLst/>
-              </a:prstGeom>
-              <a:ln>
-                <a:tailEnd type="arrow"/>
-              </a:ln>
-            </xdr:spPr>
-            <xdr:style>
-              <a:lnRef idx="1">
-                <a:schemeClr val="dk1"/>
-              </a:lnRef>
-              <a:fillRef idx="0">
-                <a:schemeClr val="dk1"/>
-              </a:fillRef>
-              <a:effectRef idx="0">
-                <a:schemeClr val="dk1"/>
-              </a:effectRef>
-              <a:fontRef idx="minor">
-                <a:schemeClr val="tx1"/>
-              </a:fontRef>
-            </xdr:style>
-          </xdr:cxnSp>
-          <xdr:cxnSp macro="">
-            <xdr:nvCxnSpPr>
-              <xdr:cNvPr id="128" name="Straight Arrow Connector 127"/>
-              <xdr:cNvCxnSpPr/>
-            </xdr:nvCxnSpPr>
-            <xdr:spPr>
-              <a:xfrm flipV="1">
-                <a:off x="5838825" y="1371600"/>
-                <a:ext cx="0" cy="200025"/>
-              </a:xfrm>
-              <a:prstGeom prst="straightConnector1">
-                <a:avLst/>
-              </a:prstGeom>
-              <a:ln>
-                <a:tailEnd type="arrow"/>
-              </a:ln>
-            </xdr:spPr>
-            <xdr:style>
-              <a:lnRef idx="1">
-                <a:schemeClr val="dk1"/>
-              </a:lnRef>
-              <a:fillRef idx="0">
-                <a:schemeClr val="dk1"/>
-              </a:fillRef>
-              <a:effectRef idx="0">
-                <a:schemeClr val="dk1"/>
-              </a:effectRef>
-              <a:fontRef idx="minor">
-                <a:schemeClr val="tx1"/>
-              </a:fontRef>
-            </xdr:style>
-          </xdr:cxnSp>
-          <xdr:cxnSp macro="">
-            <xdr:nvCxnSpPr>
-              <xdr:cNvPr id="129" name="Straight Arrow Connector 128"/>
-              <xdr:cNvCxnSpPr/>
-            </xdr:nvCxnSpPr>
-            <xdr:spPr>
-              <a:xfrm flipV="1">
-                <a:off x="6734175" y="1371600"/>
-                <a:ext cx="0" cy="200025"/>
-              </a:xfrm>
-              <a:prstGeom prst="straightConnector1">
-                <a:avLst/>
-              </a:prstGeom>
-              <a:ln>
-                <a:tailEnd type="arrow"/>
-              </a:ln>
-            </xdr:spPr>
-            <xdr:style>
-              <a:lnRef idx="1">
-                <a:schemeClr val="dk1"/>
-              </a:lnRef>
-              <a:fillRef idx="0">
-                <a:schemeClr val="dk1"/>
-              </a:fillRef>
-              <a:effectRef idx="0">
-                <a:schemeClr val="dk1"/>
-              </a:effectRef>
-              <a:fontRef idx="minor">
-                <a:schemeClr val="tx1"/>
-              </a:fontRef>
-            </xdr:style>
-          </xdr:cxnSp>
-          <xdr:cxnSp macro="">
-            <xdr:nvCxnSpPr>
-              <xdr:cNvPr id="130" name="Straight Arrow Connector 129"/>
-              <xdr:cNvCxnSpPr/>
-            </xdr:nvCxnSpPr>
-            <xdr:spPr>
-              <a:xfrm flipV="1">
-                <a:off x="7715251" y="1371600"/>
-                <a:ext cx="0" cy="200025"/>
-              </a:xfrm>
-              <a:prstGeom prst="straightConnector1">
-                <a:avLst/>
-              </a:prstGeom>
-              <a:ln>
-                <a:tailEnd type="arrow"/>
-              </a:ln>
-            </xdr:spPr>
-            <xdr:style>
-              <a:lnRef idx="1">
-                <a:schemeClr val="dk1"/>
-              </a:lnRef>
-              <a:fillRef idx="0">
-                <a:schemeClr val="dk1"/>
-              </a:fillRef>
-              <a:effectRef idx="0">
-                <a:schemeClr val="dk1"/>
-              </a:effectRef>
-              <a:fontRef idx="minor">
-                <a:schemeClr val="tx1"/>
-              </a:fontRef>
-            </xdr:style>
-          </xdr:cxnSp>
-          <xdr:cxnSp macro="">
-            <xdr:nvCxnSpPr>
-              <xdr:cNvPr id="131" name="Straight Arrow Connector 130"/>
-              <xdr:cNvCxnSpPr/>
-            </xdr:nvCxnSpPr>
-            <xdr:spPr>
-              <a:xfrm flipV="1">
-                <a:off x="8815657" y="1371600"/>
-                <a:ext cx="0" cy="200025"/>
-              </a:xfrm>
-              <a:prstGeom prst="straightConnector1">
-                <a:avLst/>
-              </a:prstGeom>
-              <a:ln>
-                <a:tailEnd type="arrow"/>
-              </a:ln>
-            </xdr:spPr>
-            <xdr:style>
-              <a:lnRef idx="1">
-                <a:schemeClr val="dk1"/>
-              </a:lnRef>
-              <a:fillRef idx="0">
-                <a:schemeClr val="dk1"/>
-              </a:fillRef>
-              <a:effectRef idx="0">
-                <a:schemeClr val="dk1"/>
-              </a:effectRef>
-              <a:fontRef idx="minor">
-                <a:schemeClr val="tx1"/>
-              </a:fontRef>
-            </xdr:style>
-          </xdr:cxnSp>
-        </xdr:grpSp>
-        <xdr:cxnSp macro="">
-          <xdr:nvCxnSpPr>
-            <xdr:cNvPr id="120" name="Straight Arrow Connector 119"/>
-            <xdr:cNvCxnSpPr/>
-          </xdr:nvCxnSpPr>
-          <xdr:spPr>
-            <a:xfrm flipV="1">
-              <a:off x="7686675" y="2133600"/>
-              <a:ext cx="0" cy="200025"/>
-            </a:xfrm>
-            <a:prstGeom prst="straightConnector1">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:ln>
-              <a:tailEnd type="arrow"/>
-            </a:ln>
-          </xdr:spPr>
-          <xdr:style>
-            <a:lnRef idx="1">
-              <a:schemeClr val="dk1"/>
-            </a:lnRef>
-            <a:fillRef idx="0">
-              <a:schemeClr val="dk1"/>
-            </a:fillRef>
-            <a:effectRef idx="0">
-              <a:schemeClr val="dk1"/>
-            </a:effectRef>
-            <a:fontRef idx="minor">
-              <a:schemeClr val="tx1"/>
-            </a:fontRef>
-          </xdr:style>
-        </xdr:cxnSp>
-        <xdr:cxnSp macro="">
-          <xdr:nvCxnSpPr>
-            <xdr:cNvPr id="121" name="Straight Arrow Connector 120"/>
-            <xdr:cNvCxnSpPr/>
-          </xdr:nvCxnSpPr>
-          <xdr:spPr>
-            <a:xfrm flipV="1">
-              <a:off x="8429625" y="2133600"/>
-              <a:ext cx="0" cy="200025"/>
-            </a:xfrm>
-            <a:prstGeom prst="straightConnector1">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:ln>
-              <a:tailEnd type="arrow"/>
-            </a:ln>
-          </xdr:spPr>
-          <xdr:style>
-            <a:lnRef idx="1">
-              <a:schemeClr val="dk1"/>
-            </a:lnRef>
-            <a:fillRef idx="0">
-              <a:schemeClr val="dk1"/>
-            </a:fillRef>
-            <a:effectRef idx="0">
-              <a:schemeClr val="dk1"/>
-            </a:effectRef>
-            <a:fontRef idx="minor">
-              <a:schemeClr val="tx1"/>
-            </a:fontRef>
-          </xdr:style>
-        </xdr:cxnSp>
-        <xdr:cxnSp macro="">
-          <xdr:nvCxnSpPr>
-            <xdr:cNvPr id="122" name="Straight Arrow Connector 121"/>
-            <xdr:cNvCxnSpPr/>
-          </xdr:nvCxnSpPr>
-          <xdr:spPr>
-            <a:xfrm flipV="1">
-              <a:off x="9248775" y="2133600"/>
-              <a:ext cx="0" cy="200025"/>
-            </a:xfrm>
-            <a:prstGeom prst="straightConnector1">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:ln>
-              <a:tailEnd type="arrow"/>
-            </a:ln>
-          </xdr:spPr>
-          <xdr:style>
-            <a:lnRef idx="1">
-              <a:schemeClr val="dk1"/>
-            </a:lnRef>
-            <a:fillRef idx="0">
-              <a:schemeClr val="dk1"/>
-            </a:fillRef>
-            <a:effectRef idx="0">
-              <a:schemeClr val="dk1"/>
-            </a:effectRef>
-            <a:fontRef idx="minor">
-              <a:schemeClr val="tx1"/>
-            </a:fontRef>
-          </xdr:style>
-        </xdr:cxnSp>
-      </xdr:grpSp>
-      <xdr:cxnSp macro="">
-        <xdr:nvCxnSpPr>
-          <xdr:cNvPr id="169" name="Straight Arrow Connector 168"/>
-          <xdr:cNvCxnSpPr/>
-        </xdr:nvCxnSpPr>
-        <xdr:spPr>
-          <a:xfrm flipV="1">
-            <a:off x="10020300" y="2133600"/>
-            <a:ext cx="0" cy="200025"/>
-          </a:xfrm>
-          <a:prstGeom prst="straightConnector1">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:ln>
-            <a:tailEnd type="arrow"/>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="1">
-            <a:schemeClr val="dk1"/>
-          </a:lnRef>
-          <a:fillRef idx="0">
-            <a:schemeClr val="dk1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="dk1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="tx1"/>
-          </a:fontRef>
-        </xdr:style>
-      </xdr:cxnSp>
-      <xdr:cxnSp macro="">
-        <xdr:nvCxnSpPr>
-          <xdr:cNvPr id="179" name="Straight Arrow Connector 178"/>
-          <xdr:cNvCxnSpPr/>
-        </xdr:nvCxnSpPr>
-        <xdr:spPr>
-          <a:xfrm flipV="1">
-            <a:off x="10744200" y="2133600"/>
-            <a:ext cx="0" cy="200025"/>
-          </a:xfrm>
-          <a:prstGeom prst="straightConnector1">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:ln>
-            <a:tailEnd type="arrow"/>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="1">
-            <a:schemeClr val="dk1"/>
-          </a:lnRef>
-          <a:fillRef idx="0">
-            <a:schemeClr val="dk1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="dk1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="tx1"/>
-          </a:fontRef>
-        </xdr:style>
-      </xdr:cxnSp>
-    </xdr:grpSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>17</xdr:col>
+      <xdr:col>19</xdr:col>
       <xdr:colOff>361950</xdr:colOff>
       <xdr:row>22</xdr:row>
       <xdr:rowOff>180975</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>21</xdr:col>
+      <xdr:col>23</xdr:col>
       <xdr:colOff>439831</xdr:colOff>
       <xdr:row>24</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
@@ -12799,7 +11844,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="12039600" y="4419600"/>
+          <a:off x="13639800" y="4419600"/>
           <a:ext cx="3202081" cy="200025"/>
           <a:chOff x="952500" y="2143125"/>
           <a:chExt cx="3888241" cy="200025"/>
@@ -12969,13 +12014,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>23</xdr:col>
+      <xdr:col>25</xdr:col>
       <xdr:colOff>409575</xdr:colOff>
       <xdr:row>22</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>25</xdr:col>
+      <xdr:col>27</xdr:col>
       <xdr:colOff>447675</xdr:colOff>
       <xdr:row>24</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
@@ -12987,7 +12032,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="16773525" y="4410075"/>
+          <a:off x="18373725" y="4410075"/>
           <a:ext cx="1600200" cy="209550"/>
           <a:chOff x="895350" y="2886075"/>
           <a:chExt cx="1943100" cy="209550"/>
@@ -13112,7 +12157,7 @@
       <xdr:grpSpPr>
         <a:xfrm>
           <a:off x="561975" y="5181600"/>
-          <a:ext cx="3954573" cy="200025"/>
+          <a:ext cx="3992673" cy="200025"/>
           <a:chOff x="895350" y="8239125"/>
           <a:chExt cx="4812191" cy="200025"/>
         </a:xfrm>
@@ -13438,42 +12483,653 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>342900</xdr:colOff>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>2113</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="14" name="Group 13"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="514350" y="3648075"/>
+          <a:ext cx="11489263" cy="209550"/>
+          <a:chOff x="514350" y="3648075"/>
+          <a:chExt cx="11451163" cy="209550"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:grpSp>
+        <xdr:nvGrpSpPr>
+          <xdr:cNvPr id="85" name="Group 84"/>
+          <xdr:cNvGrpSpPr/>
+        </xdr:nvGrpSpPr>
+        <xdr:grpSpPr>
+          <a:xfrm>
+            <a:off x="514350" y="3648075"/>
+            <a:ext cx="10229850" cy="209550"/>
+            <a:chOff x="514350" y="2124075"/>
+            <a:chExt cx="10229850" cy="209550"/>
+          </a:xfrm>
+        </xdr:grpSpPr>
+        <xdr:grpSp>
+          <xdr:nvGrpSpPr>
+            <xdr:cNvPr id="118" name="Group 117"/>
+            <xdr:cNvGrpSpPr/>
+          </xdr:nvGrpSpPr>
+          <xdr:grpSpPr>
+            <a:xfrm>
+              <a:off x="514350" y="2124075"/>
+              <a:ext cx="10229850" cy="209550"/>
+              <a:chOff x="514350" y="2124075"/>
+              <a:chExt cx="10229850" cy="209550"/>
+            </a:xfrm>
+          </xdr:grpSpPr>
+          <xdr:grpSp>
+            <xdr:nvGrpSpPr>
+              <xdr:cNvPr id="119" name="Group 118"/>
+              <xdr:cNvGrpSpPr/>
+            </xdr:nvGrpSpPr>
+            <xdr:grpSpPr>
+              <a:xfrm>
+                <a:off x="514350" y="2124075"/>
+                <a:ext cx="10229850" cy="209550"/>
+                <a:chOff x="1038225" y="1362075"/>
+                <a:chExt cx="12485743" cy="209550"/>
+              </a:xfrm>
+            </xdr:grpSpPr>
+            <xdr:cxnSp macro="">
+              <xdr:nvCxnSpPr>
+                <xdr:cNvPr id="123" name="Elbow Connector 122"/>
+                <xdr:cNvCxnSpPr/>
+              </xdr:nvCxnSpPr>
+              <xdr:spPr>
+                <a:xfrm>
+                  <a:off x="1038225" y="1390650"/>
+                  <a:ext cx="12485743" cy="180975"/>
+                </a:xfrm>
+                <a:prstGeom prst="bentConnector3">
+                  <a:avLst>
+                    <a:gd name="adj1" fmla="val 0"/>
+                  </a:avLst>
+                </a:prstGeom>
+              </xdr:spPr>
+              <xdr:style>
+                <a:lnRef idx="1">
+                  <a:schemeClr val="dk1"/>
+                </a:lnRef>
+                <a:fillRef idx="0">
+                  <a:schemeClr val="dk1"/>
+                </a:fillRef>
+                <a:effectRef idx="0">
+                  <a:schemeClr val="dk1"/>
+                </a:effectRef>
+                <a:fontRef idx="minor">
+                  <a:schemeClr val="tx1"/>
+                </a:fontRef>
+              </xdr:style>
+            </xdr:cxnSp>
+            <xdr:cxnSp macro="">
+              <xdr:nvCxnSpPr>
+                <xdr:cNvPr id="124" name="Straight Arrow Connector 123"/>
+                <xdr:cNvCxnSpPr/>
+              </xdr:nvCxnSpPr>
+              <xdr:spPr>
+                <a:xfrm flipV="1">
+                  <a:off x="1981200" y="1362075"/>
+                  <a:ext cx="0" cy="200025"/>
+                </a:xfrm>
+                <a:prstGeom prst="straightConnector1">
+                  <a:avLst/>
+                </a:prstGeom>
+                <a:ln>
+                  <a:tailEnd type="arrow"/>
+                </a:ln>
+              </xdr:spPr>
+              <xdr:style>
+                <a:lnRef idx="1">
+                  <a:schemeClr val="dk1"/>
+                </a:lnRef>
+                <a:fillRef idx="0">
+                  <a:schemeClr val="dk1"/>
+                </a:fillRef>
+                <a:effectRef idx="0">
+                  <a:schemeClr val="dk1"/>
+                </a:effectRef>
+                <a:fontRef idx="minor">
+                  <a:schemeClr val="tx1"/>
+                </a:fontRef>
+              </xdr:style>
+            </xdr:cxnSp>
+            <xdr:cxnSp macro="">
+              <xdr:nvCxnSpPr>
+                <xdr:cNvPr id="125" name="Straight Arrow Connector 124"/>
+                <xdr:cNvCxnSpPr/>
+              </xdr:nvCxnSpPr>
+              <xdr:spPr>
+                <a:xfrm flipV="1">
+                  <a:off x="2981324" y="1371600"/>
+                  <a:ext cx="0" cy="200025"/>
+                </a:xfrm>
+                <a:prstGeom prst="straightConnector1">
+                  <a:avLst/>
+                </a:prstGeom>
+                <a:ln>
+                  <a:tailEnd type="arrow"/>
+                </a:ln>
+              </xdr:spPr>
+              <xdr:style>
+                <a:lnRef idx="1">
+                  <a:schemeClr val="dk1"/>
+                </a:lnRef>
+                <a:fillRef idx="0">
+                  <a:schemeClr val="dk1"/>
+                </a:fillRef>
+                <a:effectRef idx="0">
+                  <a:schemeClr val="dk1"/>
+                </a:effectRef>
+                <a:fontRef idx="minor">
+                  <a:schemeClr val="tx1"/>
+                </a:fontRef>
+              </xdr:style>
+            </xdr:cxnSp>
+            <xdr:cxnSp macro="">
+              <xdr:nvCxnSpPr>
+                <xdr:cNvPr id="126" name="Straight Arrow Connector 125"/>
+                <xdr:cNvCxnSpPr/>
+              </xdr:nvCxnSpPr>
+              <xdr:spPr>
+                <a:xfrm flipV="1">
+                  <a:off x="4000499" y="1371600"/>
+                  <a:ext cx="0" cy="200025"/>
+                </a:xfrm>
+                <a:prstGeom prst="straightConnector1">
+                  <a:avLst/>
+                </a:prstGeom>
+                <a:ln>
+                  <a:tailEnd type="arrow"/>
+                </a:ln>
+              </xdr:spPr>
+              <xdr:style>
+                <a:lnRef idx="1">
+                  <a:schemeClr val="dk1"/>
+                </a:lnRef>
+                <a:fillRef idx="0">
+                  <a:schemeClr val="dk1"/>
+                </a:fillRef>
+                <a:effectRef idx="0">
+                  <a:schemeClr val="dk1"/>
+                </a:effectRef>
+                <a:fontRef idx="minor">
+                  <a:schemeClr val="tx1"/>
+                </a:fontRef>
+              </xdr:style>
+            </xdr:cxnSp>
+            <xdr:cxnSp macro="">
+              <xdr:nvCxnSpPr>
+                <xdr:cNvPr id="127" name="Straight Arrow Connector 126"/>
+                <xdr:cNvCxnSpPr/>
+              </xdr:nvCxnSpPr>
+              <xdr:spPr>
+                <a:xfrm flipV="1">
+                  <a:off x="4914900" y="1371600"/>
+                  <a:ext cx="0" cy="200025"/>
+                </a:xfrm>
+                <a:prstGeom prst="straightConnector1">
+                  <a:avLst/>
+                </a:prstGeom>
+                <a:ln>
+                  <a:tailEnd type="arrow"/>
+                </a:ln>
+              </xdr:spPr>
+              <xdr:style>
+                <a:lnRef idx="1">
+                  <a:schemeClr val="dk1"/>
+                </a:lnRef>
+                <a:fillRef idx="0">
+                  <a:schemeClr val="dk1"/>
+                </a:fillRef>
+                <a:effectRef idx="0">
+                  <a:schemeClr val="dk1"/>
+                </a:effectRef>
+                <a:fontRef idx="minor">
+                  <a:schemeClr val="tx1"/>
+                </a:fontRef>
+              </xdr:style>
+            </xdr:cxnSp>
+            <xdr:cxnSp macro="">
+              <xdr:nvCxnSpPr>
+                <xdr:cNvPr id="128" name="Straight Arrow Connector 127"/>
+                <xdr:cNvCxnSpPr/>
+              </xdr:nvCxnSpPr>
+              <xdr:spPr>
+                <a:xfrm flipV="1">
+                  <a:off x="5838825" y="1371600"/>
+                  <a:ext cx="0" cy="200025"/>
+                </a:xfrm>
+                <a:prstGeom prst="straightConnector1">
+                  <a:avLst/>
+                </a:prstGeom>
+                <a:ln>
+                  <a:tailEnd type="arrow"/>
+                </a:ln>
+              </xdr:spPr>
+              <xdr:style>
+                <a:lnRef idx="1">
+                  <a:schemeClr val="dk1"/>
+                </a:lnRef>
+                <a:fillRef idx="0">
+                  <a:schemeClr val="dk1"/>
+                </a:fillRef>
+                <a:effectRef idx="0">
+                  <a:schemeClr val="dk1"/>
+                </a:effectRef>
+                <a:fontRef idx="minor">
+                  <a:schemeClr val="tx1"/>
+                </a:fontRef>
+              </xdr:style>
+            </xdr:cxnSp>
+            <xdr:cxnSp macro="">
+              <xdr:nvCxnSpPr>
+                <xdr:cNvPr id="129" name="Straight Arrow Connector 128"/>
+                <xdr:cNvCxnSpPr/>
+              </xdr:nvCxnSpPr>
+              <xdr:spPr>
+                <a:xfrm flipV="1">
+                  <a:off x="6734175" y="1371600"/>
+                  <a:ext cx="0" cy="200025"/>
+                </a:xfrm>
+                <a:prstGeom prst="straightConnector1">
+                  <a:avLst/>
+                </a:prstGeom>
+                <a:ln>
+                  <a:tailEnd type="arrow"/>
+                </a:ln>
+              </xdr:spPr>
+              <xdr:style>
+                <a:lnRef idx="1">
+                  <a:schemeClr val="dk1"/>
+                </a:lnRef>
+                <a:fillRef idx="0">
+                  <a:schemeClr val="dk1"/>
+                </a:fillRef>
+                <a:effectRef idx="0">
+                  <a:schemeClr val="dk1"/>
+                </a:effectRef>
+                <a:fontRef idx="minor">
+                  <a:schemeClr val="tx1"/>
+                </a:fontRef>
+              </xdr:style>
+            </xdr:cxnSp>
+            <xdr:cxnSp macro="">
+              <xdr:nvCxnSpPr>
+                <xdr:cNvPr id="130" name="Straight Arrow Connector 129"/>
+                <xdr:cNvCxnSpPr/>
+              </xdr:nvCxnSpPr>
+              <xdr:spPr>
+                <a:xfrm flipV="1">
+                  <a:off x="7715251" y="1371600"/>
+                  <a:ext cx="0" cy="200025"/>
+                </a:xfrm>
+                <a:prstGeom prst="straightConnector1">
+                  <a:avLst/>
+                </a:prstGeom>
+                <a:ln>
+                  <a:tailEnd type="arrow"/>
+                </a:ln>
+              </xdr:spPr>
+              <xdr:style>
+                <a:lnRef idx="1">
+                  <a:schemeClr val="dk1"/>
+                </a:lnRef>
+                <a:fillRef idx="0">
+                  <a:schemeClr val="dk1"/>
+                </a:fillRef>
+                <a:effectRef idx="0">
+                  <a:schemeClr val="dk1"/>
+                </a:effectRef>
+                <a:fontRef idx="minor">
+                  <a:schemeClr val="tx1"/>
+                </a:fontRef>
+              </xdr:style>
+            </xdr:cxnSp>
+            <xdr:cxnSp macro="">
+              <xdr:nvCxnSpPr>
+                <xdr:cNvPr id="131" name="Straight Arrow Connector 130"/>
+                <xdr:cNvCxnSpPr/>
+              </xdr:nvCxnSpPr>
+              <xdr:spPr>
+                <a:xfrm flipV="1">
+                  <a:off x="8815657" y="1371600"/>
+                  <a:ext cx="0" cy="200025"/>
+                </a:xfrm>
+                <a:prstGeom prst="straightConnector1">
+                  <a:avLst/>
+                </a:prstGeom>
+                <a:ln>
+                  <a:tailEnd type="arrow"/>
+                </a:ln>
+              </xdr:spPr>
+              <xdr:style>
+                <a:lnRef idx="1">
+                  <a:schemeClr val="dk1"/>
+                </a:lnRef>
+                <a:fillRef idx="0">
+                  <a:schemeClr val="dk1"/>
+                </a:fillRef>
+                <a:effectRef idx="0">
+                  <a:schemeClr val="dk1"/>
+                </a:effectRef>
+                <a:fontRef idx="minor">
+                  <a:schemeClr val="tx1"/>
+                </a:fontRef>
+              </xdr:style>
+            </xdr:cxnSp>
+          </xdr:grpSp>
+          <xdr:cxnSp macro="">
+            <xdr:nvCxnSpPr>
+              <xdr:cNvPr id="120" name="Straight Arrow Connector 119"/>
+              <xdr:cNvCxnSpPr/>
+            </xdr:nvCxnSpPr>
+            <xdr:spPr>
+              <a:xfrm flipV="1">
+                <a:off x="7686675" y="2133600"/>
+                <a:ext cx="0" cy="200025"/>
+              </a:xfrm>
+              <a:prstGeom prst="straightConnector1">
+                <a:avLst/>
+              </a:prstGeom>
+              <a:ln>
+                <a:tailEnd type="arrow"/>
+              </a:ln>
+            </xdr:spPr>
+            <xdr:style>
+              <a:lnRef idx="1">
+                <a:schemeClr val="dk1"/>
+              </a:lnRef>
+              <a:fillRef idx="0">
+                <a:schemeClr val="dk1"/>
+              </a:fillRef>
+              <a:effectRef idx="0">
+                <a:schemeClr val="dk1"/>
+              </a:effectRef>
+              <a:fontRef idx="minor">
+                <a:schemeClr val="tx1"/>
+              </a:fontRef>
+            </xdr:style>
+          </xdr:cxnSp>
+          <xdr:cxnSp macro="">
+            <xdr:nvCxnSpPr>
+              <xdr:cNvPr id="121" name="Straight Arrow Connector 120"/>
+              <xdr:cNvCxnSpPr/>
+            </xdr:nvCxnSpPr>
+            <xdr:spPr>
+              <a:xfrm flipV="1">
+                <a:off x="8429625" y="2133600"/>
+                <a:ext cx="0" cy="200025"/>
+              </a:xfrm>
+              <a:prstGeom prst="straightConnector1">
+                <a:avLst/>
+              </a:prstGeom>
+              <a:ln>
+                <a:tailEnd type="arrow"/>
+              </a:ln>
+            </xdr:spPr>
+            <xdr:style>
+              <a:lnRef idx="1">
+                <a:schemeClr val="dk1"/>
+              </a:lnRef>
+              <a:fillRef idx="0">
+                <a:schemeClr val="dk1"/>
+              </a:fillRef>
+              <a:effectRef idx="0">
+                <a:schemeClr val="dk1"/>
+              </a:effectRef>
+              <a:fontRef idx="minor">
+                <a:schemeClr val="tx1"/>
+              </a:fontRef>
+            </xdr:style>
+          </xdr:cxnSp>
+          <xdr:cxnSp macro="">
+            <xdr:nvCxnSpPr>
+              <xdr:cNvPr id="122" name="Straight Arrow Connector 121"/>
+              <xdr:cNvCxnSpPr/>
+            </xdr:nvCxnSpPr>
+            <xdr:spPr>
+              <a:xfrm flipV="1">
+                <a:off x="9248775" y="2133600"/>
+                <a:ext cx="0" cy="200025"/>
+              </a:xfrm>
+              <a:prstGeom prst="straightConnector1">
+                <a:avLst/>
+              </a:prstGeom>
+              <a:ln>
+                <a:tailEnd type="arrow"/>
+              </a:ln>
+            </xdr:spPr>
+            <xdr:style>
+              <a:lnRef idx="1">
+                <a:schemeClr val="dk1"/>
+              </a:lnRef>
+              <a:fillRef idx="0">
+                <a:schemeClr val="dk1"/>
+              </a:fillRef>
+              <a:effectRef idx="0">
+                <a:schemeClr val="dk1"/>
+              </a:effectRef>
+              <a:fontRef idx="minor">
+                <a:schemeClr val="tx1"/>
+              </a:fontRef>
+            </xdr:style>
+          </xdr:cxnSp>
+        </xdr:grpSp>
+        <xdr:cxnSp macro="">
+          <xdr:nvCxnSpPr>
+            <xdr:cNvPr id="169" name="Straight Arrow Connector 168"/>
+            <xdr:cNvCxnSpPr/>
+          </xdr:nvCxnSpPr>
+          <xdr:spPr>
+            <a:xfrm flipV="1">
+              <a:off x="10020300" y="2133600"/>
+              <a:ext cx="0" cy="200025"/>
+            </a:xfrm>
+            <a:prstGeom prst="straightConnector1">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:ln>
+              <a:tailEnd type="arrow"/>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="1">
+              <a:schemeClr val="dk1"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:schemeClr val="dk1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="dk1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+        </xdr:cxnSp>
+        <xdr:cxnSp macro="">
+          <xdr:nvCxnSpPr>
+            <xdr:cNvPr id="179" name="Straight Arrow Connector 178"/>
+            <xdr:cNvCxnSpPr/>
+          </xdr:nvCxnSpPr>
+          <xdr:spPr>
+            <a:xfrm flipV="1">
+              <a:off x="10744200" y="2133600"/>
+              <a:ext cx="0" cy="200025"/>
+            </a:xfrm>
+            <a:prstGeom prst="straightConnector1">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:ln>
+              <a:tailEnd type="arrow"/>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="1">
+              <a:schemeClr val="dk1"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:schemeClr val="dk1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="dk1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+        </xdr:cxnSp>
+      </xdr:grpSp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="148" name="Straight Arrow Connector 147"/>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm flipV="1">
+            <a:off x="11965513" y="3657600"/>
+            <a:ext cx="0" cy="200025"/>
+          </a:xfrm>
+          <a:prstGeom prst="straightConnector1">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln>
+            <a:tailEnd type="arrow"/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="dk1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="dk1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="dk1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="149" name="Straight Arrow Connector 148"/>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm flipV="1">
+            <a:off x="11346388" y="3657600"/>
+            <a:ext cx="0" cy="200025"/>
+          </a:xfrm>
+          <a:prstGeom prst="straightConnector1">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln>
+            <a:tailEnd type="arrow"/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="dk1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="dk1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="dk1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="13" name="Straight Connector 12"/>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="10677525" y="3857625"/>
+            <a:ext cx="1285875" cy="0"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="dk1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="dk1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="dk1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>257175</xdr:colOff>
       <xdr:row>14</xdr:row>
       <xdr:rowOff>180975</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>381000</xdr:colOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>335056</xdr:colOff>
       <xdr:row>16</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="192" name="Group 191"/>
+        <xdr:cNvPr id="16" name="Group 15"/>
         <xdr:cNvGrpSpPr/>
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="590550" y="2895600"/>
-          <a:ext cx="1600200" cy="200025"/>
-          <a:chOff x="533400" y="8229600"/>
-          <a:chExt cx="1600200" cy="200025"/>
+          <a:off x="504825" y="2895600"/>
+          <a:ext cx="3240181" cy="200025"/>
+          <a:chOff x="504825" y="2895600"/>
+          <a:chExt cx="3240181" cy="200025"/>
         </a:xfrm>
       </xdr:grpSpPr>
       <xdr:cxnSp macro="">
         <xdr:nvCxnSpPr>
-          <xdr:cNvPr id="193" name="Elbow Connector 192"/>
+          <xdr:cNvPr id="187" name="Elbow Connector 186"/>
           <xdr:cNvCxnSpPr/>
         </xdr:nvCxnSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="533400" y="8248650"/>
-            <a:ext cx="1600200" cy="180975"/>
+            <a:off x="504825" y="2905125"/>
+            <a:ext cx="3238480" cy="190500"/>
           </a:xfrm>
           <a:prstGeom prst="bentConnector3">
             <a:avLst>
-              <a:gd name="adj1" fmla="val -490"/>
+              <a:gd name="adj1" fmla="val 0"/>
             </a:avLst>
           </a:prstGeom>
         </xdr:spPr>
@@ -13494,49 +13150,742 @@
       </xdr:cxnSp>
       <xdr:cxnSp macro="">
         <xdr:nvCxnSpPr>
-          <xdr:cNvPr id="194" name="Straight Arrow Connector 193"/>
-          <xdr:cNvCxnSpPr/>
-        </xdr:nvCxnSpPr>
-        <xdr:spPr>
-          <a:xfrm flipV="1">
-            <a:off x="2133600" y="8229600"/>
-            <a:ext cx="0" cy="200025"/>
-          </a:xfrm>
-          <a:prstGeom prst="straightConnector1">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:ln>
-            <a:tailEnd type="arrow"/>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="1">
-            <a:schemeClr val="dk1"/>
-          </a:lnRef>
-          <a:fillRef idx="0">
-            <a:schemeClr val="dk1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="dk1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="tx1"/>
-          </a:fontRef>
-        </xdr:style>
-      </xdr:cxnSp>
-      <xdr:cxnSp macro="">
-        <xdr:nvCxnSpPr>
-          <xdr:cNvPr id="195" name="Straight Connector 194"/>
-          <xdr:cNvCxnSpPr/>
-        </xdr:nvCxnSpPr>
-        <xdr:spPr>
-          <a:xfrm flipV="1">
-            <a:off x="1381125" y="8248650"/>
+          <xdr:cNvPr id="196" name="Straight Arrow Connector 195"/>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm flipV="1">
+            <a:off x="2124065" y="2895600"/>
+            <a:ext cx="0" cy="200025"/>
+          </a:xfrm>
+          <a:prstGeom prst="straightConnector1">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln>
+            <a:tailEnd type="arrow"/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="dk1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="dk1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="dk1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="197" name="Straight Arrow Connector 196"/>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm flipV="1">
+            <a:off x="2973372" y="2895600"/>
+            <a:ext cx="0" cy="200025"/>
+          </a:xfrm>
+          <a:prstGeom prst="straightConnector1">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln>
+            <a:tailEnd type="arrow"/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="dk1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="dk1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="dk1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="198" name="Straight Arrow Connector 197"/>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm flipV="1">
+            <a:off x="3745006" y="2895600"/>
+            <a:ext cx="0" cy="200025"/>
+          </a:xfrm>
+          <a:prstGeom prst="straightConnector1">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln>
+            <a:tailEnd type="arrow"/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="dk1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="dk1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="dk1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="202" name="Straight Connector 201"/>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm flipV="1">
+            <a:off x="1365408" y="2914650"/>
             <a:ext cx="0" cy="180975"/>
           </a:xfrm>
           <a:prstGeom prst="line">
             <a:avLst/>
           </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="dk1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="dk1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="dk1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>409575</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>249242</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="15" name="Group 14"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="657225" y="4419600"/>
+          <a:ext cx="2220917" cy="200025"/>
+          <a:chOff x="657225" y="4419600"/>
+          <a:chExt cx="2220917" cy="200025"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="190" name="Straight Arrow Connector 189"/>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm flipV="1">
+            <a:off x="2195508" y="4419600"/>
+            <a:ext cx="0" cy="200025"/>
+          </a:xfrm>
+          <a:prstGeom prst="straightConnector1">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln>
+            <a:tailEnd type="arrow"/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="dk1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="dk1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="dk1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="200" name="Elbow Connector 199"/>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="657225" y="4429125"/>
+            <a:ext cx="2209772" cy="190500"/>
+          </a:xfrm>
+          <a:prstGeom prst="bentConnector3">
+            <a:avLst>
+              <a:gd name="adj1" fmla="val -439"/>
+            </a:avLst>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="dk1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="dk1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="dk1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="201" name="Straight Arrow Connector 200"/>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm flipV="1">
+            <a:off x="2878142" y="4419600"/>
+            <a:ext cx="0" cy="200025"/>
+          </a:xfrm>
+          <a:prstGeom prst="straightConnector1">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln>
+            <a:tailEnd type="arrow"/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="dk1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="dk1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="dk1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="203" name="Straight Connector 202"/>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm flipV="1">
+            <a:off x="1408176" y="4438650"/>
+            <a:ext cx="0" cy="180975"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="dk1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="dk1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="dk1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>400050</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="21" name="Group 20"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="13525500" y="2886075"/>
+          <a:ext cx="10306050" cy="209550"/>
+          <a:chOff x="13525500" y="2886075"/>
+          <a:chExt cx="10306050" cy="209550"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="170" name="Elbow Connector 169"/>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="13525500" y="2914650"/>
+            <a:ext cx="10296525" cy="180975"/>
+          </a:xfrm>
+          <a:prstGeom prst="bentConnector3">
+            <a:avLst>
+              <a:gd name="adj1" fmla="val 46"/>
+            </a:avLst>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="dk1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="dk1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="dk1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="171" name="Straight Arrow Connector 170"/>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm flipV="1">
+            <a:off x="14499979" y="2886075"/>
+            <a:ext cx="0" cy="200025"/>
+          </a:xfrm>
+          <a:prstGeom prst="straightConnector1">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln>
+            <a:tailEnd type="arrow"/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="dk1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="dk1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="dk1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="172" name="Straight Arrow Connector 171"/>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm flipV="1">
+            <a:off x="15219193" y="2895600"/>
+            <a:ext cx="0" cy="200025"/>
+          </a:xfrm>
+          <a:prstGeom prst="straightConnector1">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln>
+            <a:tailEnd type="arrow"/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="dk1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="dk1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="dk1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="173" name="Straight Arrow Connector 172"/>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm flipV="1">
+            <a:off x="16815343" y="2895600"/>
+            <a:ext cx="0" cy="200025"/>
+          </a:xfrm>
+          <a:prstGeom prst="straightConnector1">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln>
+            <a:tailEnd type="arrow"/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="dk1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="dk1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="dk1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="174" name="Straight Arrow Connector 173"/>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm flipV="1">
+            <a:off x="17531694" y="2895600"/>
+            <a:ext cx="0" cy="200025"/>
+          </a:xfrm>
+          <a:prstGeom prst="straightConnector1">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln>
+            <a:tailEnd type="arrow"/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="dk1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="dk1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="dk1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="175" name="Straight Arrow Connector 174"/>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm flipV="1">
+            <a:off x="18353137" y="2895600"/>
+            <a:ext cx="0" cy="200025"/>
+          </a:xfrm>
+          <a:prstGeom prst="straightConnector1">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln>
+            <a:tailEnd type="arrow"/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="dk1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="dk1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="dk1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="176" name="Straight Arrow Connector 175"/>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm flipV="1">
+            <a:off x="19164101" y="2895600"/>
+            <a:ext cx="0" cy="200025"/>
+          </a:xfrm>
+          <a:prstGeom prst="straightConnector1">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln>
+            <a:tailEnd type="arrow"/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="dk1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="dk1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="dk1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="177" name="Straight Arrow Connector 176"/>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm flipV="1">
+            <a:off x="20730405" y="2895600"/>
+            <a:ext cx="0" cy="200025"/>
+          </a:xfrm>
+          <a:prstGeom prst="straightConnector1">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln>
+            <a:tailEnd type="arrow"/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="dk1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="dk1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="dk1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="178" name="Straight Arrow Connector 177"/>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm flipV="1">
+            <a:off x="21477031" y="2895600"/>
+            <a:ext cx="0" cy="200025"/>
+          </a:xfrm>
+          <a:prstGeom prst="straightConnector1">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln>
+            <a:tailEnd type="arrow"/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="dk1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="dk1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="dk1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="167" name="Straight Arrow Connector 166"/>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm flipV="1">
+            <a:off x="22260907" y="2895600"/>
+            <a:ext cx="0" cy="200025"/>
+          </a:xfrm>
+          <a:prstGeom prst="straightConnector1">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln>
+            <a:tailEnd type="arrow"/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="dk1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="dk1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="dk1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="204" name="Straight Arrow Connector 203"/>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm flipV="1">
+            <a:off x="15996193" y="2895600"/>
+            <a:ext cx="0" cy="200025"/>
+          </a:xfrm>
+          <a:prstGeom prst="straightConnector1">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln>
+            <a:tailEnd type="arrow"/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="dk1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="dk1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="dk1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="205" name="Straight Arrow Connector 204"/>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm flipV="1">
+            <a:off x="19935626" y="2895600"/>
+            <a:ext cx="0" cy="200025"/>
+          </a:xfrm>
+          <a:prstGeom prst="straightConnector1">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln>
+            <a:tailEnd type="arrow"/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="dk1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="dk1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="dk1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="206" name="Straight Arrow Connector 205"/>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm flipV="1">
+            <a:off x="23012400" y="2895600"/>
+            <a:ext cx="0" cy="200025"/>
+          </a:xfrm>
+          <a:prstGeom prst="straightConnector1">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln>
+            <a:tailEnd type="arrow"/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="dk1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="dk1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="dk1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="207" name="Straight Arrow Connector 206"/>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm flipV="1">
+            <a:off x="23831550" y="2895600"/>
+            <a:ext cx="0" cy="200025"/>
+          </a:xfrm>
+          <a:prstGeom prst="straightConnector1">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln>
+            <a:tailEnd type="arrow"/>
+          </a:ln>
         </xdr:spPr>
         <xdr:style>
           <a:lnRef idx="1">
@@ -13871,26 +14220,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:26" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B1" s="35" t="s">
+      <c r="B1" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="35"/>
-      <c r="D1" s="35"/>
-      <c r="E1" s="35"/>
-      <c r="F1" s="35"/>
-      <c r="G1" s="35"/>
-      <c r="H1" s="35"/>
-      <c r="I1" s="35"/>
-      <c r="J1" s="35"/>
-      <c r="M1" s="35" t="s">
+      <c r="C1" s="36"/>
+      <c r="D1" s="36"/>
+      <c r="E1" s="36"/>
+      <c r="F1" s="36"/>
+      <c r="G1" s="36"/>
+      <c r="H1" s="36"/>
+      <c r="I1" s="36"/>
+      <c r="J1" s="36"/>
+      <c r="M1" s="36" t="s">
         <v>1</v>
       </c>
-      <c r="N1" s="35"/>
-      <c r="O1" s="35"/>
-      <c r="P1" s="35"/>
-      <c r="Q1" s="35"/>
-      <c r="R1" s="35"/>
-      <c r="S1" s="35"/>
+      <c r="N1" s="36"/>
+      <c r="O1" s="36"/>
+      <c r="P1" s="36"/>
+      <c r="Q1" s="36"/>
+      <c r="R1" s="36"/>
+      <c r="S1" s="36"/>
     </row>
     <row r="3" spans="2:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="5" t="s">
@@ -13899,12 +14248,12 @@
       <c r="M3" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="U3" s="36" t="s">
+      <c r="U3" s="37" t="s">
         <v>3</v>
       </c>
-      <c r="V3" s="36"/>
-      <c r="W3" s="36"/>
-      <c r="X3" s="36"/>
+      <c r="V3" s="37"/>
+      <c r="W3" s="37"/>
+      <c r="X3" s="37"/>
       <c r="Y3" s="12"/>
       <c r="Z3" s="12"/>
     </row>
@@ -13957,19 +14306,19 @@
       <c r="S4" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="U4" s="36"/>
-      <c r="V4" s="36"/>
-      <c r="W4" s="36"/>
-      <c r="X4" s="36"/>
+      <c r="U4" s="37"/>
+      <c r="V4" s="37"/>
+      <c r="W4" s="37"/>
+      <c r="X4" s="37"/>
       <c r="Y4" s="12"/>
       <c r="Z4" s="12"/>
     </row>
     <row r="5" spans="2:26" x14ac:dyDescent="0.25">
       <c r="T5" s="4"/>
-      <c r="U5" s="36"/>
-      <c r="V5" s="36"/>
-      <c r="W5" s="36"/>
-      <c r="X5" s="36"/>
+      <c r="U5" s="37"/>
+      <c r="V5" s="37"/>
+      <c r="W5" s="37"/>
+      <c r="X5" s="37"/>
       <c r="Y5" s="12"/>
       <c r="Z5" s="12"/>
     </row>
@@ -13978,10 +14327,10 @@
         <v>13</v>
       </c>
       <c r="T6" s="4"/>
-      <c r="U6" s="36"/>
-      <c r="V6" s="36"/>
-      <c r="W6" s="36"/>
-      <c r="X6" s="36"/>
+      <c r="U6" s="37"/>
+      <c r="V6" s="37"/>
+      <c r="W6" s="37"/>
+      <c r="X6" s="37"/>
       <c r="Y6" s="12"/>
       <c r="Z6" s="12"/>
     </row>
@@ -13996,10 +14345,10 @@
         <v>9</v>
       </c>
       <c r="T7" s="4"/>
-      <c r="U7" s="36"/>
-      <c r="V7" s="36"/>
-      <c r="W7" s="36"/>
-      <c r="X7" s="36"/>
+      <c r="U7" s="37"/>
+      <c r="V7" s="37"/>
+      <c r="W7" s="37"/>
+      <c r="X7" s="37"/>
       <c r="Y7" s="12"/>
       <c r="Z7" s="12"/>
     </row>
@@ -14375,12 +14724,12 @@
       <c r="M42" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="U42" s="36" t="s">
+      <c r="U42" s="37" t="s">
         <v>43</v>
       </c>
-      <c r="V42" s="36"/>
-      <c r="W42" s="36"/>
-      <c r="X42" s="36"/>
+      <c r="V42" s="37"/>
+      <c r="W42" s="37"/>
+      <c r="X42" s="37"/>
       <c r="Y42" s="12"/>
       <c r="Z42" s="12"/>
     </row>
@@ -14401,19 +14750,19 @@
         <v>15</v>
       </c>
       <c r="T43" s="4"/>
-      <c r="U43" s="36"/>
-      <c r="V43" s="36"/>
-      <c r="W43" s="36"/>
-      <c r="X43" s="36"/>
+      <c r="U43" s="37"/>
+      <c r="V43" s="37"/>
+      <c r="W43" s="37"/>
+      <c r="X43" s="37"/>
       <c r="Y43" s="12"/>
       <c r="Z43" s="12"/>
     </row>
     <row r="44" spans="2:26" x14ac:dyDescent="0.25">
       <c r="T44" s="4"/>
-      <c r="U44" s="36"/>
-      <c r="V44" s="36"/>
-      <c r="W44" s="36"/>
-      <c r="X44" s="36"/>
+      <c r="U44" s="37"/>
+      <c r="V44" s="37"/>
+      <c r="W44" s="37"/>
+      <c r="X44" s="37"/>
       <c r="Y44" s="12"/>
       <c r="Z44" s="12"/>
     </row>
@@ -14422,10 +14771,10 @@
         <v>44</v>
       </c>
       <c r="T45" s="4"/>
-      <c r="U45" s="36"/>
-      <c r="V45" s="36"/>
-      <c r="W45" s="36"/>
-      <c r="X45" s="36"/>
+      <c r="U45" s="37"/>
+      <c r="V45" s="37"/>
+      <c r="W45" s="37"/>
+      <c r="X45" s="37"/>
       <c r="Y45" s="12"/>
       <c r="Z45" s="12"/>
     </row>
@@ -14436,10 +14785,10 @@
       <c r="N46" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="U46" s="36"/>
-      <c r="V46" s="36"/>
-      <c r="W46" s="36"/>
-      <c r="X46" s="36"/>
+      <c r="U46" s="37"/>
+      <c r="V46" s="37"/>
+      <c r="W46" s="37"/>
+      <c r="X46" s="37"/>
       <c r="Y46" s="12"/>
       <c r="Z46" s="12"/>
     </row>
@@ -14450,12 +14799,12 @@
       <c r="M48" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="U48" s="36" t="s">
+      <c r="U48" s="37" t="s">
         <v>56</v>
       </c>
-      <c r="V48" s="36"/>
-      <c r="W48" s="36"/>
-      <c r="X48" s="36"/>
+      <c r="V48" s="37"/>
+      <c r="W48" s="37"/>
+      <c r="X48" s="37"/>
       <c r="Y48" s="12"/>
       <c r="Z48" s="12"/>
     </row>
@@ -14492,19 +14841,19 @@
       </c>
       <c r="O49" s="9"/>
       <c r="T49" s="4"/>
-      <c r="U49" s="36"/>
-      <c r="V49" s="36"/>
-      <c r="W49" s="36"/>
-      <c r="X49" s="36"/>
+      <c r="U49" s="37"/>
+      <c r="V49" s="37"/>
+      <c r="W49" s="37"/>
+      <c r="X49" s="37"/>
       <c r="Y49" s="12"/>
       <c r="Z49" s="12"/>
     </row>
     <row r="50" spans="2:26" x14ac:dyDescent="0.25">
       <c r="T50" s="4"/>
-      <c r="U50" s="36"/>
-      <c r="V50" s="36"/>
-      <c r="W50" s="36"/>
-      <c r="X50" s="36"/>
+      <c r="U50" s="37"/>
+      <c r="V50" s="37"/>
+      <c r="W50" s="37"/>
+      <c r="X50" s="37"/>
       <c r="Y50" s="12"/>
       <c r="Z50" s="12"/>
     </row>
@@ -14513,10 +14862,10 @@
         <v>45</v>
       </c>
       <c r="T51" s="4"/>
-      <c r="U51" s="36"/>
-      <c r="V51" s="36"/>
-      <c r="W51" s="36"/>
-      <c r="X51" s="36"/>
+      <c r="U51" s="37"/>
+      <c r="V51" s="37"/>
+      <c r="W51" s="37"/>
+      <c r="X51" s="37"/>
       <c r="Y51" s="12"/>
       <c r="Z51" s="12"/>
     </row>
@@ -14527,10 +14876,10 @@
       <c r="N52" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="U52" s="36"/>
-      <c r="V52" s="36"/>
-      <c r="W52" s="36"/>
-      <c r="X52" s="36"/>
+      <c r="U52" s="37"/>
+      <c r="V52" s="37"/>
+      <c r="W52" s="37"/>
+      <c r="X52" s="37"/>
       <c r="Y52" s="12"/>
       <c r="Z52" s="12"/>
     </row>
@@ -14688,28 +15037,28 @@
   </cols>
   <sheetData>
     <row r="4" spans="2:22" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B4" s="35" t="s">
+      <c r="B4" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="35"/>
-      <c r="D4" s="35"/>
-      <c r="E4" s="35"/>
-      <c r="F4" s="35"/>
-      <c r="G4" s="35"/>
-      <c r="H4" s="35"/>
-      <c r="I4" s="35"/>
-      <c r="J4" s="35"/>
+      <c r="C4" s="36"/>
+      <c r="D4" s="36"/>
+      <c r="E4" s="36"/>
+      <c r="F4" s="36"/>
+      <c r="G4" s="36"/>
+      <c r="H4" s="36"/>
+      <c r="I4" s="36"/>
+      <c r="J4" s="36"/>
       <c r="K4" s="13"/>
-      <c r="N4" s="35" t="s">
+      <c r="N4" s="36" t="s">
         <v>1</v>
       </c>
-      <c r="O4" s="35"/>
-      <c r="P4" s="35"/>
-      <c r="Q4" s="35"/>
-      <c r="R4" s="35"/>
-      <c r="S4" s="35"/>
-      <c r="T4" s="35"/>
-      <c r="U4" s="35"/>
+      <c r="O4" s="36"/>
+      <c r="P4" s="36"/>
+      <c r="Q4" s="36"/>
+      <c r="R4" s="36"/>
+      <c r="S4" s="36"/>
+      <c r="T4" s="36"/>
+      <c r="U4" s="36"/>
     </row>
     <row r="6" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B6" s="14" t="s">
@@ -15273,31 +15622,31 @@
   </cols>
   <sheetData>
     <row r="4" spans="2:25" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B4" s="37" t="s">
+      <c r="B4" s="38" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="37"/>
-      <c r="D4" s="37"/>
-      <c r="E4" s="37"/>
-      <c r="F4" s="37"/>
-      <c r="G4" s="37"/>
-      <c r="H4" s="37"/>
-      <c r="I4" s="37"/>
-      <c r="J4" s="37"/>
+      <c r="C4" s="38"/>
+      <c r="D4" s="38"/>
+      <c r="E4" s="38"/>
+      <c r="F4" s="38"/>
+      <c r="G4" s="38"/>
+      <c r="H4" s="38"/>
+      <c r="I4" s="38"/>
+      <c r="J4" s="38"/>
       <c r="K4" s="22"/>
       <c r="L4" s="22"/>
       <c r="M4" s="22"/>
       <c r="N4" s="22"/>
-      <c r="Q4" s="37" t="s">
+      <c r="Q4" s="38" t="s">
         <v>1</v>
       </c>
-      <c r="R4" s="37"/>
-      <c r="S4" s="37"/>
-      <c r="T4" s="37"/>
-      <c r="U4" s="37"/>
-      <c r="V4" s="37"/>
-      <c r="W4" s="37"/>
-      <c r="X4" s="37"/>
+      <c r="R4" s="38"/>
+      <c r="S4" s="38"/>
+      <c r="T4" s="38"/>
+      <c r="U4" s="38"/>
+      <c r="V4" s="38"/>
+      <c r="W4" s="38"/>
+      <c r="X4" s="38"/>
     </row>
     <row r="6" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B6" s="24" t="s">
@@ -15935,60 +16284,64 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A4:AC68"/>
+  <dimension ref="A4:AG68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G7" workbookViewId="0">
-      <selection activeCell="U31" sqref="U31"/>
+    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
+      <selection activeCell="AE21" sqref="AE21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3.7109375" style="23" customWidth="1"/>
-    <col min="2" max="15" width="11.7109375" style="23" customWidth="1"/>
-    <col min="16" max="17" width="3.7109375" style="23" customWidth="1"/>
-    <col min="18" max="29" width="11.7109375" style="23" customWidth="1"/>
-    <col min="30" max="30" width="3.7109375" style="23" customWidth="1"/>
-    <col min="31" max="32" width="14.28515625" style="23" customWidth="1"/>
-    <col min="33" max="16384" width="9.140625" style="23"/>
+    <col min="2" max="3" width="11.7109375" style="23" customWidth="1"/>
+    <col min="4" max="4" width="12.28515625" style="23" bestFit="1" customWidth="1"/>
+    <col min="5" max="17" width="11.7109375" style="23" customWidth="1"/>
+    <col min="18" max="19" width="3.7109375" style="23" customWidth="1"/>
+    <col min="20" max="33" width="11.7109375" style="23" customWidth="1"/>
+    <col min="34" max="34" width="3.7109375" style="23" customWidth="1"/>
+    <col min="35" max="36" width="14.28515625" style="23" customWidth="1"/>
+    <col min="37" max="16384" width="9.140625" style="23"/>
   </cols>
   <sheetData>
-    <row r="4" spans="2:29" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B4" s="37" t="s">
+    <row r="4" spans="2:33" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B4" s="38" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="37"/>
-      <c r="D4" s="37"/>
-      <c r="E4" s="37"/>
-      <c r="F4" s="37"/>
-      <c r="G4" s="37"/>
-      <c r="H4" s="37"/>
-      <c r="I4" s="37"/>
-      <c r="J4" s="37"/>
+      <c r="C4" s="38"/>
+      <c r="D4" s="38"/>
+      <c r="E4" s="38"/>
+      <c r="F4" s="38"/>
+      <c r="G4" s="38"/>
+      <c r="H4" s="38"/>
+      <c r="I4" s="38"/>
+      <c r="J4" s="38"/>
       <c r="K4" s="22"/>
       <c r="L4" s="22"/>
       <c r="M4" s="22"/>
       <c r="N4" s="32"/>
       <c r="O4" s="22"/>
-      <c r="R4" s="37" t="s">
+      <c r="P4" s="35"/>
+      <c r="Q4" s="35"/>
+      <c r="T4" s="38" t="s">
         <v>1</v>
       </c>
-      <c r="S4" s="37"/>
-      <c r="T4" s="37"/>
-      <c r="U4" s="37"/>
-      <c r="V4" s="37"/>
-      <c r="W4" s="37"/>
-      <c r="X4" s="37"/>
-      <c r="Y4" s="37"/>
-    </row>
-    <row r="6" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="U4" s="38"/>
+      <c r="V4" s="38"/>
+      <c r="W4" s="38"/>
+      <c r="X4" s="38"/>
+      <c r="Y4" s="38"/>
+      <c r="Z4" s="38"/>
+      <c r="AA4" s="38"/>
+    </row>
+    <row r="6" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B6" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="R6" s="24" t="s">
+      <c r="T6" s="24" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="2:29" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B7" s="25" t="s">
         <v>98</v>
       </c>
@@ -16021,29 +16374,31 @@
       <c r="M7" s="26"/>
       <c r="N7" s="26"/>
       <c r="O7" s="26"/>
-      <c r="R7" s="25" t="s">
+      <c r="P7" s="26"/>
+      <c r="Q7" s="26"/>
+      <c r="T7" s="25" t="s">
         <v>98</v>
       </c>
-      <c r="S7" s="24" t="s">
+      <c r="U7" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="T7" s="24" t="s">
+      <c r="V7" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="U7" s="24" t="s">
+      <c r="W7" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="V7" s="24" t="s">
+      <c r="X7" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="W7" s="24" t="s">
+      <c r="Y7" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="X7" s="24" t="s">
+      <c r="Z7" s="24" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="2:29" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B8" s="27"/>
       <c r="C8" s="26"/>
       <c r="D8" s="26"/>
@@ -16058,9 +16413,9 @@
       <c r="M8" s="26"/>
       <c r="N8" s="26"/>
       <c r="O8" s="26"/>
-      <c r="R8" s="27"/>
-      <c r="S8" s="26"/>
-      <c r="T8" s="26"/>
+      <c r="P8" s="26"/>
+      <c r="Q8" s="26"/>
+      <c r="T8" s="27"/>
       <c r="U8" s="26"/>
       <c r="V8" s="26"/>
       <c r="W8" s="26"/>
@@ -16069,8 +16424,10 @@
       <c r="Z8" s="26"/>
       <c r="AA8" s="26"/>
       <c r="AB8" s="26"/>
-    </row>
-    <row r="9" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="AC8" s="26"/>
+      <c r="AD8" s="26"/>
+    </row>
+    <row r="9" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B9" s="27"/>
       <c r="C9" s="26"/>
       <c r="D9" s="26"/>
@@ -16085,9 +16442,9 @@
       <c r="M9" s="26"/>
       <c r="N9" s="26"/>
       <c r="O9" s="26"/>
-      <c r="R9" s="27"/>
-      <c r="S9" s="26"/>
-      <c r="T9" s="26"/>
+      <c r="P9" s="26"/>
+      <c r="Q9" s="26"/>
+      <c r="T9" s="27"/>
       <c r="U9" s="26"/>
       <c r="V9" s="26"/>
       <c r="W9" s="26"/>
@@ -16096,8 +16453,10 @@
       <c r="Z9" s="26"/>
       <c r="AA9" s="26"/>
       <c r="AB9" s="26"/>
-    </row>
-    <row r="10" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="AC9" s="26"/>
+      <c r="AD9" s="26"/>
+    </row>
+    <row r="10" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B10" s="29" t="s">
         <v>100</v>
       </c>
@@ -16114,11 +16473,13 @@
       <c r="M10" s="26"/>
       <c r="N10" s="26"/>
       <c r="O10" s="26"/>
-      <c r="R10" s="24" t="s">
+      <c r="P10" s="26"/>
+      <c r="Q10" s="26"/>
+      <c r="T10" s="24" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="11" spans="2:29" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B11" s="25" t="s">
         <v>98</v>
       </c>
@@ -16139,17 +16500,19 @@
       <c r="M11" s="34"/>
       <c r="N11" s="26"/>
       <c r="O11" s="26"/>
-      <c r="R11" s="25" t="s">
+      <c r="P11" s="26"/>
+      <c r="Q11" s="26"/>
+      <c r="T11" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="S11" s="24" t="s">
+      <c r="U11" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="T11" s="24" t="s">
+      <c r="V11" s="24" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="2:29" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B12" s="27"/>
       <c r="C12" s="34"/>
       <c r="D12" s="34"/>
@@ -16164,8 +16527,10 @@
       <c r="M12" s="34"/>
       <c r="N12" s="26"/>
       <c r="O12" s="26"/>
-    </row>
-    <row r="13" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="P12" s="26"/>
+      <c r="Q12" s="26"/>
+    </row>
+    <row r="13" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B13" s="27"/>
       <c r="C13" s="34"/>
       <c r="D13" s="34"/>
@@ -16180,8 +16545,10 @@
       <c r="M13" s="34"/>
       <c r="N13" s="26"/>
       <c r="O13" s="26"/>
-    </row>
-    <row r="14" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="P13" s="26"/>
+      <c r="Q13" s="26"/>
+    </row>
+    <row r="14" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B14" s="29" t="s">
         <v>103</v>
       </c>
@@ -16198,11 +16565,13 @@
       <c r="M14" s="34"/>
       <c r="N14" s="26"/>
       <c r="O14" s="26"/>
-      <c r="R14" s="24" t="s">
+      <c r="P14" s="26"/>
+      <c r="Q14" s="26"/>
+      <c r="T14" s="24" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="15" spans="2:29" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B15" s="25" t="s">
         <v>98</v>
       </c>
@@ -16212,8 +16581,12 @@
       <c r="D15" s="29" t="s">
         <v>104</v>
       </c>
-      <c r="E15" s="34"/>
-      <c r="F15" s="34"/>
+      <c r="E15" s="29" t="s">
+        <v>108</v>
+      </c>
+      <c r="F15" s="29" t="s">
+        <v>105</v>
+      </c>
       <c r="G15" s="34"/>
       <c r="H15" s="34"/>
       <c r="I15" s="34"/>
@@ -16223,44 +16596,52 @@
       <c r="M15" s="34"/>
       <c r="N15" s="26"/>
       <c r="O15" s="26"/>
-      <c r="R15" s="25" t="s">
+      <c r="P15" s="26"/>
+      <c r="Q15" s="26"/>
+      <c r="T15" s="25" t="s">
         <v>58</v>
       </c>
-      <c r="S15" s="24" t="s">
+      <c r="U15" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="T15" s="24" t="s">
+      <c r="V15" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="U15" s="24" t="s">
+      <c r="W15" s="24" t="s">
         <v>83</v>
       </c>
-      <c r="V15" s="24" t="s">
+      <c r="X15" s="24" t="s">
         <v>82</v>
       </c>
-      <c r="W15" s="24" t="s">
+      <c r="Y15" s="24" t="s">
         <v>81</v>
       </c>
-      <c r="X15" s="24" t="s">
+      <c r="Z15" s="24" t="s">
+        <v>109</v>
+      </c>
+      <c r="AA15" s="24" t="s">
         <v>67</v>
       </c>
-      <c r="Y15" s="24" t="s">
+      <c r="AB15" s="24" t="s">
         <v>68</v>
       </c>
-      <c r="Z15" s="24" t="s">
+      <c r="AC15" s="24" t="s">
+        <v>107</v>
+      </c>
+      <c r="AD15" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="AA15" s="24" t="s">
+      <c r="AE15" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="AB15" s="24" t="s">
+      <c r="AF15" s="24" t="s">
         <v>98</v>
       </c>
-      <c r="AC15" s="29" t="s">
+      <c r="AG15" s="29" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="16" spans="2:29" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B16" s="27"/>
       <c r="C16" s="34"/>
       <c r="D16" s="34"/>
@@ -16275,21 +16656,23 @@
       <c r="M16" s="34"/>
       <c r="N16" s="26"/>
       <c r="O16" s="26"/>
-      <c r="R16" s="27"/>
-      <c r="S16" s="26"/>
-      <c r="T16" s="26"/>
+      <c r="P16" s="26"/>
+      <c r="Q16" s="26"/>
+      <c r="T16" s="27"/>
       <c r="U16" s="26"/>
       <c r="V16" s="26"/>
-    </row>
-    <row r="18" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="W16" s="26"/>
+      <c r="X16" s="26"/>
+    </row>
+    <row r="18" spans="1:28" x14ac:dyDescent="0.25">
       <c r="B18" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="R18" s="24" t="s">
+      <c r="T18" s="24" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="19" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:28" x14ac:dyDescent="0.25">
       <c r="B19" s="25" t="s">
         <v>58</v>
       </c>
@@ -16309,62 +16692,68 @@
         <v>81</v>
       </c>
       <c r="H19" s="24" t="s">
+        <v>106</v>
+      </c>
+      <c r="I19" s="24" t="s">
         <v>67</v>
       </c>
-      <c r="I19" s="24" t="s">
+      <c r="J19" s="24" t="s">
         <v>68</v>
       </c>
-      <c r="J19" s="24" t="s">
+      <c r="K19" s="24" t="s">
+        <v>107</v>
+      </c>
+      <c r="L19" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="K19" s="24" t="s">
+      <c r="M19" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="L19" s="33" t="s">
+      <c r="N19" s="33" t="s">
         <v>9</v>
       </c>
-      <c r="M19" s="24" t="s">
+      <c r="O19" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="N19" s="29" t="s">
+      <c r="P19" s="29" t="s">
         <v>98</v>
       </c>
-      <c r="O19" s="24" t="s">
+      <c r="Q19" s="24" t="s">
         <v>59</v>
       </c>
-      <c r="R19" s="25" t="s">
+      <c r="T19" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="S19" s="24" t="s">
+      <c r="U19" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="T19" s="24" t="s">
+      <c r="V19" s="24" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="20" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:28" x14ac:dyDescent="0.25">
       <c r="B20" s="27"/>
       <c r="C20" s="26"/>
       <c r="D20" s="26"/>
       <c r="E20" s="26"/>
       <c r="F20" s="26"/>
     </row>
-    <row r="21" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:28" x14ac:dyDescent="0.25">
       <c r="B21" s="28"/>
       <c r="C21" s="28"/>
     </row>
-    <row r="22" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:28" x14ac:dyDescent="0.25">
       <c r="B22" s="31" t="s">
         <v>19</v>
       </c>
-      <c r="R22" s="24" t="s">
+      <c r="T22" s="24" t="s">
         <v>30</v>
       </c>
-      <c r="X22" s="24" t="s">
+      <c r="Z22" s="24" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="23" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:28" x14ac:dyDescent="0.25">
       <c r="B23" s="25" t="s">
         <v>58</v>
       </c>
@@ -16374,49 +16763,51 @@
       <c r="D23" s="24" t="s">
         <v>77</v>
       </c>
-      <c r="E23" s="26"/>
-      <c r="R23" s="25" t="s">
+      <c r="E23" s="24" t="s">
+        <v>105</v>
+      </c>
+      <c r="T23" s="25" t="s">
         <v>31</v>
       </c>
-      <c r="S23" s="24" t="s">
+      <c r="U23" s="24" t="s">
         <v>32</v>
       </c>
-      <c r="T23" s="24" t="s">
+      <c r="V23" s="24" t="s">
         <v>33</v>
       </c>
-      <c r="U23" s="24" t="s">
+      <c r="W23" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="V23" s="24" t="s">
+      <c r="X23" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="X23" s="25" t="s">
+      <c r="Z23" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="Y23" s="24" t="s">
+      <c r="AA23" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="Z23" s="24" t="s">
+      <c r="AB23" s="24" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="24" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:28" x14ac:dyDescent="0.25">
       <c r="B24" s="27"/>
       <c r="C24" s="27"/>
       <c r="D24" s="26"/>
     </row>
-    <row r="26" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:28" x14ac:dyDescent="0.25">
       <c r="B26" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="R26" s="24" t="s">
+      <c r="T26" s="24" t="s">
         <v>52</v>
       </c>
-      <c r="W26" s="24" t="s">
+      <c r="Y26" s="24" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="27" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:28" x14ac:dyDescent="0.25">
       <c r="B27" s="25" t="s">
         <v>20</v>
       </c>
@@ -16435,38 +16826,38 @@
       <c r="G27" s="24" t="s">
         <v>99</v>
       </c>
-      <c r="R27" s="25" t="s">
+      <c r="T27" s="25" t="s">
         <v>80</v>
       </c>
-      <c r="S27" s="24" t="s">
+      <c r="U27" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="T27" s="24" t="s">
+      <c r="V27" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="W27" s="25" t="s">
+      <c r="Y27" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="X27" s="24" t="s">
+      <c r="Z27" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="Y27" s="24" t="s">
+      <c r="AA27" s="24" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="28" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:28" x14ac:dyDescent="0.25">
       <c r="B28" s="27"/>
       <c r="C28" s="26"/>
       <c r="D28" s="26"/>
       <c r="E28" s="26"/>
     </row>
-    <row r="29" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:28" x14ac:dyDescent="0.25">
       <c r="B29" s="27"/>
       <c r="C29" s="26"/>
       <c r="D29" s="26"/>
       <c r="E29" s="26"/>
     </row>
-    <row r="30" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A30" s="30"/>
       <c r="B30" s="29" t="s">
         <v>92</v>
@@ -16475,7 +16866,7 @@
       <c r="D30" s="26"/>
       <c r="E30" s="26"/>
     </row>
-    <row r="31" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:28" x14ac:dyDescent="0.25">
       <c r="B31" s="25" t="s">
         <v>20</v>
       </c>
@@ -16492,7 +16883,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="32" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:28" x14ac:dyDescent="0.25">
       <c r="B32" s="27"/>
       <c r="C32" s="26"/>
       <c r="D32" s="26"/>
@@ -16601,12 +16992,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="50" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B50" s="24" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="51" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B51" s="25" t="s">
         <v>78</v>
       </c>
@@ -16620,12 +17011,12 @@
         <v>76</v>
       </c>
     </row>
-    <row r="54" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B54" s="24" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="55" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B55" s="25" t="s">
         <v>20</v>
       </c>
@@ -16636,12 +17027,12 @@
         <v>84</v>
       </c>
     </row>
-    <row r="58" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B58" s="24" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="59" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B59" s="25" t="s">
         <v>59</v>
       </c>
@@ -16655,35 +17046,35 @@
         <v>49</v>
       </c>
     </row>
-    <row r="60" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="P60" s="26"/>
-      <c r="Q60" s="26"/>
+    <row r="60" spans="2:23" x14ac:dyDescent="0.25">
       <c r="R60" s="26"/>
       <c r="S60" s="26"/>
       <c r="T60" s="26"/>
       <c r="U60" s="26"/>
-    </row>
-    <row r="61" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="V60" s="26"/>
+      <c r="W60" s="26"/>
+    </row>
+    <row r="61" spans="2:23" x14ac:dyDescent="0.25">
       <c r="I61" s="26"/>
-      <c r="P61" s="26"/>
-      <c r="Q61" s="26"/>
       <c r="R61" s="26"/>
       <c r="S61" s="26"/>
       <c r="T61" s="26"/>
       <c r="U61" s="26"/>
-    </row>
-    <row r="62" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="V61" s="26"/>
+      <c r="W61" s="26"/>
+    </row>
+    <row r="62" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B62" s="24" t="s">
         <v>50</v>
       </c>
-      <c r="P62" s="26"/>
-      <c r="Q62" s="26"/>
       <c r="R62" s="26"/>
       <c r="S62" s="26"/>
       <c r="T62" s="26"/>
       <c r="U62" s="26"/>
-    </row>
-    <row r="63" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="V62" s="26"/>
+      <c r="W62" s="26"/>
+    </row>
+    <row r="63" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B63" s="25" t="s">
         <v>49</v>
       </c>
@@ -16723,7 +17114,7 @@
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="B4:J4"/>
-    <mergeCell ref="R4:Y4"/>
+    <mergeCell ref="T4:AA4"/>
   </mergeCells>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
   <pageSetup scale="65" fitToWidth="0" orientation="landscape" r:id="rId1"/>
